--- a/полезные ссылки.xlsx
+++ b/полезные ссылки.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Файл для обмена ссылками</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>https://tproger.ru/articles/how-to-prepare-your-github-profile/</t>
-  </si>
-  <si>
-    <t>Новая ссылка</t>
   </si>
 </sst>
 </file>
@@ -627,7 +624,7 @@
   <dimension ref="A1:B981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -650,7 +647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -658,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="12.75">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -666,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="12.75">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -674,7 +671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="12.75">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -682,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="12.75">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -690,7 +687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="25.5">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -698,7 +695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="25.5">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -706,7 +703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="12.75">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -714,7 +711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="12.75">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -722,7 +719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="12.75">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -730,7 +727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="12.75">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -738,7 +735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="12.75">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -746,7 +743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="12.75">
       <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
@@ -754,7 +751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="12.75">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -762,7 +759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="12.75">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -770,7 +767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="12.75">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -778,7 +775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="12.75">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -786,7 +783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="12.75">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -794,7 +791,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="12.75">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -802,7 +799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="12.75">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -810,7 +807,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="12.75">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -818,7 +815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="12.75">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -826,7 +823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="12.75">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -834,7 +831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="12.75">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -842,7 +839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="12.75">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -850,7 +847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="12.75">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -858,7 +855,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="12.75">
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
@@ -866,7 +863,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="12.75">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -875,92 +872,90 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75">
-      <c r="A31" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="A31" s="11"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="12.75">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" ht="12.75">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="12.75">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" ht="12.75">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" ht="12.75">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" ht="12.75">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" ht="12.75">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="12.75">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" ht="12.75">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" ht="12.75">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="12.75">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" ht="12.75">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" ht="12.75">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" ht="12.75">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" ht="12.75">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" ht="12.75">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="12.75">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="12.75">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" ht="12.75">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" ht="12.75">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="12.75">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
     </row>
